--- a/IPC CA RD Y MEX.xlsx
+++ b/IPC CA RD Y MEX.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://inegobgt-my.sharepoint.com/personal/laalvarado_ine_gob_gt/Documents/Automatizacion IPC/Agosto 2023/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="8" documentId="11_E78C8671EE91EF8942AF8A751F897D1AAC7041A6" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{71F032C7-46B4-490B-A83A-867CF83F7F08}"/>
   <bookViews>
-    <workbookView xWindow="-3780" yWindow="-21105" windowWidth="20730" windowHeight="11760" activeTab="7"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Guatemala" sheetId="1" r:id="rId1"/>
@@ -21,23 +27,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="472" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="464" uniqueCount="15">
   <si>
     <t>indice</t>
   </si>
@@ -83,14 +78,11 @@
   <si>
     <t>Diciembre</t>
   </si>
-  <si>
-    <t>N/A</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -173,7 +165,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -186,11 +178,8 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -210,7 +199,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 4" xfId="1"/>
+    <cellStyle name="Normal 4" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -514,18 +503,18 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C56"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="C80" sqref="C80"/>
+    <sheetView topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="A57" sqref="A57:XFD57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1114,7 +1103,7 @@
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" s="11">
+      <c r="A54" s="10">
         <v>169.37</v>
       </c>
       <c r="B54" t="s">
@@ -1136,8 +1125,8 @@
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>15</v>
+      <c r="A56">
+        <v>171.06</v>
       </c>
       <c r="B56" t="s">
         <v>9</v>
@@ -1154,11 +1143,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C56"/>
   <sheetViews>
-    <sheetView topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="A57" sqref="A57"/>
+    <sheetView topLeftCell="A38" workbookViewId="0">
+      <selection activeCell="A57" sqref="A57:XFD57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1747,7 +1736,7 @@
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" s="11">
+      <c r="A54" s="10">
         <v>128.88</v>
       </c>
       <c r="B54" t="s">
@@ -1758,7 +1747,7 @@
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55" s="11">
+      <c r="A55" s="10">
         <v>129.18</v>
       </c>
       <c r="B55" t="s">
@@ -1769,8 +1758,8 @@
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>15</v>
+      <c r="A56">
+        <v>129.16999999999999</v>
       </c>
       <c r="B56" t="s">
         <v>9</v>
@@ -1785,20 +1774,20 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C56"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:C57"/>
   <sheetViews>
     <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="C57" sqref="C57"/>
+      <selection activeCell="A57" sqref="A57:XFD57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" style="11"/>
+    <col min="1" max="1" width="11.42578125" style="10"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
@@ -2304,7 +2293,7 @@
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A47" s="12">
+      <c r="A47" s="11">
         <v>399.2</v>
       </c>
       <c r="B47" t="s">
@@ -2315,7 +2304,7 @@
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A48" s="12">
+      <c r="A48" s="11">
         <v>403.1</v>
       </c>
       <c r="B48" t="s">
@@ -2326,7 +2315,7 @@
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A49" s="12">
+      <c r="A49" s="11">
         <v>404.6</v>
       </c>
       <c r="B49" t="s">
@@ -2337,7 +2326,7 @@
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A50" s="12">
+      <c r="A50" s="11">
         <v>406.3</v>
       </c>
       <c r="B50" t="s">
@@ -2348,7 +2337,7 @@
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A51" s="12">
+      <c r="A51" s="11">
         <v>411</v>
       </c>
       <c r="B51" s="7" t="s">
@@ -2359,7 +2348,7 @@
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" s="12">
+      <c r="A52" s="11">
         <v>412</v>
       </c>
       <c r="B52" t="s">
@@ -2403,8 +2392,8 @@
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A56" s="11" t="s">
-        <v>15</v>
+      <c r="A56" s="5">
+        <v>416.6</v>
       </c>
       <c r="B56" t="s">
         <v>9</v>
@@ -2412,6 +2401,9 @@
       <c r="C56">
         <v>2023</v>
       </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2419,11 +2411,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:C56"/>
   <sheetViews>
     <sheetView topLeftCell="A44" workbookViewId="0">
-      <selection activeCell="C57" sqref="C57"/>
+      <selection activeCell="A57" sqref="A57:XFD57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3012,7 +3004,7 @@
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" s="11">
+      <c r="A54" s="10">
         <v>294.24</v>
       </c>
       <c r="B54" t="s">
@@ -3034,8 +3026,8 @@
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>15</v>
+      <c r="A56" s="2">
+        <v>296.10000000000002</v>
       </c>
       <c r="B56" t="s">
         <v>9</v>
@@ -3050,11 +3042,11 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:C58"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="C57" sqref="C57"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="A57" sqref="A57:XFD57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3643,7 +3635,7 @@
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" s="11">
+      <c r="A54" s="10">
         <v>109.91</v>
       </c>
       <c r="B54" t="s">
@@ -3665,8 +3657,8 @@
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>15</v>
+      <c r="A56">
+        <v>109.53</v>
       </c>
       <c r="B56" t="s">
         <v>9</v>
@@ -3676,7 +3668,7 @@
       </c>
     </row>
     <row r="58" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A58" s="15"/>
+      <c r="A58" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3685,11 +3677,11 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:C56"/>
   <sheetViews>
     <sheetView topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="C57" sqref="C57"/>
+      <selection activeCell="A57" sqref="A57:XFD57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4278,7 +4270,7 @@
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" s="13">
+      <c r="A54" s="12">
         <v>123.36</v>
       </c>
       <c r="B54" t="s">
@@ -4289,7 +4281,7 @@
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55" s="16">
+      <c r="A55" s="15">
         <v>123.63</v>
       </c>
       <c r="B55" t="s">
@@ -4300,8 +4292,8 @@
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>15</v>
+      <c r="A56">
+        <v>124.19</v>
       </c>
       <c r="B56" t="s">
         <v>9</v>
@@ -4317,11 +4309,11 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:C56"/>
   <sheetViews>
     <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="C57" sqref="C57"/>
+      <selection activeCell="A57" sqref="A57:XFD57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4932,8 +4924,8 @@
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>15</v>
+      <c r="A56" s="2">
+        <v>109.6</v>
       </c>
       <c r="B56" t="s">
         <v>9</v>
@@ -4948,11 +4940,11 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:F56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C57" sqref="C57"/>
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A57" sqref="A57:XFD57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5542,7 +5534,7 @@
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" s="14">
+      <c r="A54" s="13">
         <v>128.1</v>
       </c>
       <c r="B54" t="s">
@@ -5564,8 +5556,8 @@
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A56" s="10" t="s">
-        <v>15</v>
+      <c r="A56" s="5">
+        <v>128.80000000000001</v>
       </c>
       <c r="B56" t="s">
         <v>9</v>
